--- a/照合NG調査_20230711/multi_20230711.xlsx
+++ b/照合NG調査_20230711/multi_20230711.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="12945"/>
+    <workbookView windowWidth="23220" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="multi_20230711" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="147">
   <si>
     <t>検査開始日</t>
   </si>
@@ -524,11 +524,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mm:ss\."/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="mm:ss."/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -543,11 +543,25 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,24 +573,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,10 +588,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,8 +603,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,51 +673,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -681,7 +681,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +696,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,169 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +887,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -916,35 +931,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +943,32 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,21 +987,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -995,67 +995,67 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1064,76 +1064,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,7 +1159,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1482,19 +1482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:DP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CL4" sqref="CL4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.375"/>
+    <col min="8" max="10" width="9" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.375"/>
-    <col min="67" max="75" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="9" hidden="1" customWidth="1"/>
+    <col min="36" max="42" width="9" hidden="1" customWidth="1"/>
+    <col min="44" max="49" width="9" hidden="1" customWidth="1"/>
+    <col min="64" max="75" width="9" hidden="1" customWidth="1"/>
+    <col min="78" max="80" width="9" hidden="1" customWidth="1"/>
     <col min="88" max="89" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5125,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:DR120"/>
   <sheetViews>
